--- a/books.xlsx
+++ b/books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090c9a20ccb80ac0/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PythonLife\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0511236C-625A-4BA2-B779-C5AFBC21E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293600F3-7099-4FF3-A1F6-BE8A2C95E7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{B14E7AF8-A5F3-427D-AB51-1B5EFB25F272}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>title</t>
+    <t>Pages</t>
   </si>
   <si>
-    <t>title1</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>How to</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C057230-86F8-496C-B290-3047C3DB5BC0}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -399,14 +402,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
